--- a/data/Subset1_WithDialogActs/Maher_Equivalence 2_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Maher_Equivalence 2_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1545,12 +1545,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1811,12 +1811,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1887,12 +1887,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1967,12 +1967,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2313,12 +2313,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2811,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2849,12 +2849,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3385,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3575,12 +3575,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4111,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4225,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5023,12 +5023,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5403,12 +5403,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6087,12 +6087,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6285,12 +6285,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6593,12 +6593,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6935,12 +6935,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9237,12 +9237,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10735,12 +10735,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11539,12 +11539,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12343,12 +12343,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12419,12 +12419,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12685,12 +12685,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12723,12 +12723,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13221,12 +13221,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13297,12 +13297,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14479,12 +14479,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14897,12 +14897,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15315,12 +15315,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15657,12 +15657,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15771,12 +15771,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16113,12 +16113,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16303,12 +16303,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16341,12 +16341,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16607,12 +16607,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17641,12 +17641,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17717,12 +17717,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18211,12 +18211,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18287,12 +18287,12 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19275,12 +19275,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19503,12 +19503,12 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19693,12 +19693,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20837,12 +20837,12 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21331,12 +21331,12 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21521,12 +21521,12 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21749,12 +21749,12 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21977,12 +21977,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22205,12 +22205,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22585,12 +22585,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22623,12 +22623,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22699,12 +22699,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23041,12 +23041,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23497,12 +23497,12 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23611,12 +23611,12 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23839,12 +23839,12 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24223,12 +24223,12 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24491,12 +24491,12 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24643,12 +24643,12 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24681,12 +24681,12 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24833,12 +24833,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25061,12 +25061,12 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25251,12 +25251,12 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25327,12 +25327,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25669,12 +25669,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25707,12 +25707,12 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25745,12 +25745,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25821,12 +25821,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25897,12 +25897,12 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26083,12 +26083,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26159,12 +26159,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
